--- a/Lampiran Bimbingan Dospem2 311710228.xlsx
+++ b/Lampiran Bimbingan Dospem2 311710228.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8758219C-B6F1-4C16-B3B8-35AFC2E6FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B757941-9AC3-4496-8128-09D7A2E8383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nama</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>: Ibu Endah Yaodah Kodratillah S.Kom, MM</t>
+  </si>
+  <si>
+    <t>BAB I dan BAB II</t>
+  </si>
+  <si>
+    <t>Lanjut Ke BAB selanjutnya</t>
+  </si>
+  <si>
+    <t>BAB I BAB II BAB III</t>
+  </si>
+  <si>
+    <t>Rapihkan Lagi posisi gambar dan tulisan</t>
+  </si>
+  <si>
+    <t>Lanjut BAB Selanjutnya</t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,9 +611,15 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="7">
+        <v>44381</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
@@ -610,16 +631,24 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7">
+        <v>44404</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
